--- a/March2024/Results/Solar_Eolica/Results_Stats.xlsx
+++ b/March2024/Results/Solar_Eolica/Results_Stats.xlsx
@@ -17,6 +17,7 @@
     <sheet name="x_df" r:id="rId4" sheetId="2"/>
     <sheet name="q_df" r:id="rId6" sheetId="3"/>
     <sheet name="q_df_Test" r:id="rId7" sheetId="4"/>
+    <sheet name="Indicator" r:id="rId8" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>λ</t>
   </si>
@@ -72,6 +73,9 @@
     <t>CVaR</t>
   </si>
   <si>
+    <t>CVaR Up</t>
+  </si>
+  <si>
     <t>q 1%</t>
   </si>
   <si>
@@ -97,6 +101,18 @@
   </si>
   <si>
     <t>q 99%</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>In Sample</t>
+  </si>
+  <si>
+    <t>Out of Sample</t>
   </si>
 </sst>
 </file>
@@ -561,13 +577,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -601,8 +617,11 @@
       <c r="K1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>81.93936947794616</v>
       </c>
@@ -610,34 +629,37 @@
         <v>73.45496719657494</v>
       </c>
       <c r="C2">
+        <v>89.63987533135442</v>
+      </c>
+      <c r="D2">
         <v>71.46114056540813</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>76.56831891577663</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>78.50307698478537</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>80.57878795051627</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>82.01886235588172</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>83.49893334848616</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>85.23838890122474</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>86.74303483638201</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>91.88970435195002</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>81.93936947794616</v>
       </c>
@@ -645,34 +667,37 @@
         <v>73.45496719657494</v>
       </c>
       <c r="C3">
+        <v>89.63987533135442</v>
+      </c>
+      <c r="D3">
         <v>71.46114056540813</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>76.56831891577663</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>78.50307698478537</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>80.57878795051627</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>82.01886235588172</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>83.49893334848616</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>85.23838890122474</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>86.74303483638201</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>91.88970435195002</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>81.83194065223961</v>
       </c>
@@ -680,34 +705,37 @@
         <v>74.74535188773635</v>
       </c>
       <c r="C4">
+        <v>91.8233362101495</v>
+      </c>
+      <c r="D4">
         <v>72.88202405734792</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>77.27524520582892</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>78.62869189895402</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>80.16143279691184</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>81.52676427473973</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>83.0283825776067</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>85.07037489744788</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>87.84418794740816</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>94.09990444760692</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>81.65528076353313</v>
       </c>
@@ -715,34 +743,37 @@
         <v>75.78554483863378</v>
       </c>
       <c r="C5">
+        <v>96.44613666492131</v>
+      </c>
+      <c r="D5">
         <v>74.78243767904854</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>77.40078808070729</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>78.10066444499289</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>79.29567576097303</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>80.56187224731259</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>82.50939666541798</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>86.12790627262274</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>90.81349408987724</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>99.14248434247484</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>81.63821313664103</v>
       </c>
@@ -750,34 +781,37 @@
         <v>75.82167835099672</v>
       </c>
       <c r="C6">
+        <v>96.94575381792268</v>
+      </c>
+      <c r="D6">
         <v>74.73038858488631</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>77.33394100779675</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>78.00362865271136</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>79.20419001685895</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>80.49197263998364</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>82.47372967994528</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>86.17155893759588</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>91.05119266903736</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>99.75217943060038</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>81.63618631913042</v>
       </c>
@@ -785,34 +819,37 @@
         <v>75.82348488166237</v>
       </c>
       <c r="C7">
+        <v>97.00508443258325</v>
+      </c>
+      <c r="D7">
         <v>74.7242076426776</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>77.33964343972544</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77.9886129556204</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>79.19492661693559</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>80.48687982127764</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>82.48596428461953</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>86.18741869982271</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>91.12221978814586</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>99.82458203750988</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>81.63618631913042</v>
       </c>
@@ -820,34 +857,37 @@
         <v>75.82348488166237</v>
       </c>
       <c r="C8">
+        <v>97.00508443258325</v>
+      </c>
+      <c r="D8">
         <v>74.7242076426776</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>77.33964343972544</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>77.9886129556204</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>79.19492661693559</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>80.48687982127764</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>82.48596428461953</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>86.18741869982271</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>91.12221978814586</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>99.82458203750988</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>81.63618631913042</v>
       </c>
@@ -855,34 +895,37 @@
         <v>75.82348488166237</v>
       </c>
       <c r="C9">
+        <v>97.00508443258325</v>
+      </c>
+      <c r="D9">
         <v>74.7242076426776</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>77.33964343972544</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>77.9886129556204</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>79.19492661693559</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>80.48687982127764</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>82.48596428461953</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>86.18741869982271</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>91.12221978814586</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>99.82458203750988</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>81.63618631913042</v>
       </c>
@@ -890,34 +933,37 @@
         <v>75.82348488166237</v>
       </c>
       <c r="C10">
+        <v>97.00508443258325</v>
+      </c>
+      <c r="D10">
         <v>74.7242076426776</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>77.33964343972544</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>77.9886129556204</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>79.19492661693559</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>80.48687982127764</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>82.48596428461953</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>86.18741869982271</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>91.12221978814586</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>99.82458203750988</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>81.46465583119641</v>
       </c>
@@ -925,30 +971,33 @@
         <v>75.5089449774794</v>
       </c>
       <c r="C11">
+        <v>102.27446788101102</v>
+      </c>
+      <c r="D11">
         <v>74.98897253472948</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>76.49997115894458</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>77.18105468021393</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>78.28970801900307</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>79.63355254679018</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>82.02601548596317</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>87.69665586835072</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>94.50774743486019</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>106.53725810095804</v>
       </c>
     </row>
@@ -959,13 +1008,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -999,8 +1048,11 @@
       <c r="K1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>81.99190297005694</v>
       </c>
@@ -1008,34 +1060,37 @@
         <v>74.0491760456403</v>
       </c>
       <c r="C2">
+        <v>90.23244244476764</v>
+      </c>
+      <c r="D2">
         <v>72.37672751229083</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>76.75170523180327</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>78.42804310247209</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>80.45023469847035</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>82.06108680795897</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>83.46610486422708</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>85.12507615229177</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>86.45094560446282</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>93.97199436860471</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>81.99190297005694</v>
       </c>
@@ -1043,34 +1098,37 @@
         <v>74.0491760456403</v>
       </c>
       <c r="C3">
+        <v>90.23244244476764</v>
+      </c>
+      <c r="D3">
         <v>72.37672751229083</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>76.75170523180327</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>78.42804310247209</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>80.45023469847035</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>82.06108680795897</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>83.46610486422708</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>85.12507615229177</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>86.45094560446282</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>93.97199436860471</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>81.86553135906756</v>
       </c>
@@ -1078,34 +1136,37 @@
         <v>75.08005066876817</v>
       </c>
       <c r="C4">
+        <v>92.56982129727602</v>
+      </c>
+      <c r="D4">
         <v>73.13697853605835</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>77.23151682911471</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>78.42588711828934</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>80.07235649461062</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>81.54466296777733</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>83.09820299571483</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>85.0262743517023</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>87.38898997181445</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>96.74363932462612</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>81.65772126167327</v>
       </c>
@@ -1113,34 +1174,37 @@
         <v>75.9343997108673</v>
       </c>
       <c r="C5">
+        <v>97.32436939650306</v>
+      </c>
+      <c r="D5">
         <v>74.61925652705791</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>77.26346633272786</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>78.02399578663815</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>79.37892144894387</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>80.81105224064686</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>82.44708139808967</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>85.24545873200816</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>89.73781589444846</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>100.83691246599874</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>81.63764412230279</v>
       </c>
@@ -1148,34 +1212,37 @@
         <v>75.9361794889809</v>
       </c>
       <c r="C6">
+        <v>97.80307685283499</v>
+      </c>
+      <c r="D6">
         <v>74.59918828591381</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>77.20373929887188</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>77.9487532121571</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>79.34419794933474</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>80.72412042579957</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>82.43229111972138</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>85.2583522683476</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>89.79079207226889</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>101.18788121683912</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>81.63525991869342</v>
       </c>
@@ -1183,34 +1250,37 @@
         <v>75.93524385306277</v>
       </c>
       <c r="C7">
+        <v>97.85992439591101</v>
+      </c>
+      <c r="D7">
         <v>74.59680513898803</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>77.19401877233565</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77.93749362957232</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>79.3318882821361</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>80.70910472870861</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>82.42108047564709</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>85.25988340360101</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>89.79708310766182</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>101.22955951308842</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>81.63525991869342</v>
       </c>
@@ -1218,34 +1288,37 @@
         <v>75.93524385306277</v>
       </c>
       <c r="C8">
+        <v>97.85992439591101</v>
+      </c>
+      <c r="D8">
         <v>74.59680513898803</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>77.19401877233565</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>77.93749362957232</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>79.3318882821361</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>80.70910472870861</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>82.42108047564709</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>85.25988340360101</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>89.79708310766182</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>101.22955951308842</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>81.63525991869342</v>
       </c>
@@ -1253,34 +1326,37 @@
         <v>75.93524385306277</v>
       </c>
       <c r="C9">
+        <v>97.85992439591101</v>
+      </c>
+      <c r="D9">
         <v>74.59680513898803</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>77.19401877233565</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>77.93749362957232</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>79.3318882821361</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>80.70910472870861</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>82.42108047564709</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>85.25988340360101</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>89.79708310766182</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>101.22955951308842</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>81.63525991869342</v>
       </c>
@@ -1288,34 +1364,37 @@
         <v>75.93524385306277</v>
       </c>
       <c r="C10">
+        <v>97.85992439591101</v>
+      </c>
+      <c r="D10">
         <v>74.59680513898803</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>77.19401877233565</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>77.93749362957232</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>79.3318882821361</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>80.70910472870861</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>82.42108047564709</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>85.25988340360101</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>89.79708310766182</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>101.22955951308842</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>81.4334836826465</v>
       </c>
@@ -1323,31 +1402,71 @@
         <v>75.65215050072545</v>
       </c>
       <c r="C11">
+        <v>102.85698745866414</v>
+      </c>
+      <c r="D11">
         <v>75.20577313119506</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>76.48545647436838</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>77.19304281051501</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>78.36790803994197</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>79.78670226774847</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>82.02825435680636</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>86.39482739713175</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>91.68747430285129</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>108.00401266013469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>-17.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>-17.79</v>
       </c>
     </row>
   </sheetData>

--- a/March2024/Results/Solar_Eolica/Results_Stats.xlsx
+++ b/March2024/Results/Solar_Eolica/Results_Stats.xlsx
@@ -623,382 +623,382 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>81.93936947794616</v>
+        <v>81.93936947794637</v>
       </c>
       <c r="B2">
-        <v>73.45496719657494</v>
+        <v>73.45496719657517</v>
       </c>
       <c r="C2">
-        <v>89.63987533135442</v>
+        <v>89.63987533135463</v>
       </c>
       <c r="D2">
-        <v>71.46114056540813</v>
+        <v>71.46114056540831</v>
       </c>
       <c r="E2">
-        <v>76.56831891577663</v>
+        <v>76.56831891577686</v>
       </c>
       <c r="F2">
-        <v>78.50307698478537</v>
+        <v>78.5030769847856</v>
       </c>
       <c r="G2">
-        <v>80.57878795051627</v>
+        <v>80.57878795051649</v>
       </c>
       <c r="H2">
-        <v>82.01886235588172</v>
+        <v>82.01886235588195</v>
       </c>
       <c r="I2">
-        <v>83.49893334848616</v>
+        <v>83.49893334848637</v>
       </c>
       <c r="J2">
-        <v>85.23838890122474</v>
+        <v>85.23838890122495</v>
       </c>
       <c r="K2">
-        <v>86.74303483638201</v>
+        <v>86.74303483638221</v>
       </c>
       <c r="L2">
-        <v>91.88970435195002</v>
+        <v>91.88970435195023</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>81.93936947794616</v>
+        <v>81.93936947794637</v>
       </c>
       <c r="B3">
-        <v>73.45496719657494</v>
+        <v>73.45496719657517</v>
       </c>
       <c r="C3">
-        <v>89.63987533135442</v>
+        <v>89.63987533135463</v>
       </c>
       <c r="D3">
-        <v>71.46114056540813</v>
+        <v>71.46114056540831</v>
       </c>
       <c r="E3">
-        <v>76.56831891577663</v>
+        <v>76.56831891577686</v>
       </c>
       <c r="F3">
-        <v>78.50307698478537</v>
+        <v>78.5030769847856</v>
       </c>
       <c r="G3">
-        <v>80.57878795051627</v>
+        <v>80.57878795051649</v>
       </c>
       <c r="H3">
-        <v>82.01886235588172</v>
+        <v>82.01886235588195</v>
       </c>
       <c r="I3">
-        <v>83.49893334848616</v>
+        <v>83.49893334848637</v>
       </c>
       <c r="J3">
-        <v>85.23838890122474</v>
+        <v>85.23838890122495</v>
       </c>
       <c r="K3">
-        <v>86.74303483638201</v>
+        <v>86.74303483638221</v>
       </c>
       <c r="L3">
-        <v>91.88970435195002</v>
+        <v>91.88970435195023</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>81.83194065223961</v>
+        <v>81.83194065223981</v>
       </c>
       <c r="B4">
-        <v>74.74535188773635</v>
+        <v>74.7453518877366</v>
       </c>
       <c r="C4">
-        <v>91.8233362101495</v>
+        <v>91.82333621014973</v>
       </c>
       <c r="D4">
-        <v>72.88202405734792</v>
+        <v>72.88202405734816</v>
       </c>
       <c r="E4">
-        <v>77.27524520582892</v>
+        <v>77.27524520582914</v>
       </c>
       <c r="F4">
-        <v>78.62869189895402</v>
+        <v>78.62869189895423</v>
       </c>
       <c r="G4">
-        <v>80.16143279691184</v>
+        <v>80.16143279691204</v>
       </c>
       <c r="H4">
-        <v>81.52676427473973</v>
+        <v>81.52676427473992</v>
       </c>
       <c r="I4">
-        <v>83.0283825776067</v>
+        <v>83.02838257760692</v>
       </c>
       <c r="J4">
-        <v>85.07037489744788</v>
+        <v>85.0703748974481</v>
       </c>
       <c r="K4">
-        <v>87.84418794740816</v>
+        <v>87.84418794740837</v>
       </c>
       <c r="L4">
-        <v>94.09990444760692</v>
+        <v>94.0999044476072</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>81.65528076353313</v>
+        <v>81.65528076353336</v>
       </c>
       <c r="B5">
-        <v>75.78554483863378</v>
+        <v>75.78554483863397</v>
       </c>
       <c r="C5">
-        <v>96.44613666492131</v>
+        <v>96.44613666492154</v>
       </c>
       <c r="D5">
-        <v>74.78243767904854</v>
+        <v>74.78243767904873</v>
       </c>
       <c r="E5">
-        <v>77.40078808070729</v>
+        <v>77.4007880807075</v>
       </c>
       <c r="F5">
-        <v>78.10066444499289</v>
+        <v>78.10066444499307</v>
       </c>
       <c r="G5">
-        <v>79.29567576097303</v>
+        <v>79.29567576097323</v>
       </c>
       <c r="H5">
-        <v>80.56187224731259</v>
+        <v>80.56187224731282</v>
       </c>
       <c r="I5">
-        <v>82.50939666541798</v>
+        <v>82.50939666541818</v>
       </c>
       <c r="J5">
-        <v>86.12790627262274</v>
+        <v>86.12790627262294</v>
       </c>
       <c r="K5">
-        <v>90.81349408987724</v>
+        <v>90.81349408987745</v>
       </c>
       <c r="L5">
-        <v>99.14248434247484</v>
+        <v>99.14248434247509</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>81.63821313664103</v>
+        <v>81.63821313664124</v>
       </c>
       <c r="B6">
-        <v>75.82167835099672</v>
+        <v>75.82167835099693</v>
       </c>
       <c r="C6">
-        <v>96.94575381792268</v>
+        <v>96.94575381792285</v>
       </c>
       <c r="D6">
-        <v>74.73038858488631</v>
+        <v>74.73038858488651</v>
       </c>
       <c r="E6">
-        <v>77.33394100779675</v>
+        <v>77.33394100779695</v>
       </c>
       <c r="F6">
-        <v>78.00362865271136</v>
+        <v>78.00362865271155</v>
       </c>
       <c r="G6">
-        <v>79.20419001685895</v>
+        <v>79.20419001685916</v>
       </c>
       <c r="H6">
-        <v>80.49197263998364</v>
+        <v>80.49197263998384</v>
       </c>
       <c r="I6">
-        <v>82.47372967994528</v>
+        <v>82.47372967994546</v>
       </c>
       <c r="J6">
-        <v>86.17155893759588</v>
+        <v>86.17155893759609</v>
       </c>
       <c r="K6">
-        <v>91.05119266903736</v>
+        <v>91.05119266903752</v>
       </c>
       <c r="L6">
-        <v>99.75217943060038</v>
+        <v>99.7521794306005</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>81.63618631913042</v>
+        <v>81.63618631913064</v>
       </c>
       <c r="B7">
-        <v>75.82348488166237</v>
+        <v>75.82348488166257</v>
       </c>
       <c r="C7">
-        <v>97.00508443258325</v>
+        <v>97.0050844325834</v>
       </c>
       <c r="D7">
-        <v>74.7242076426776</v>
+        <v>74.72420764267781</v>
       </c>
       <c r="E7">
-        <v>77.33964343972544</v>
+        <v>77.33964343972566</v>
       </c>
       <c r="F7">
-        <v>77.9886129556204</v>
+        <v>77.9886129556206</v>
       </c>
       <c r="G7">
-        <v>79.19492661693559</v>
+        <v>79.1949266169358</v>
       </c>
       <c r="H7">
-        <v>80.48687982127764</v>
+        <v>80.48687982127781</v>
       </c>
       <c r="I7">
-        <v>82.48596428461953</v>
+        <v>82.4859642846197</v>
       </c>
       <c r="J7">
-        <v>86.18741869982271</v>
+        <v>86.1874186998229</v>
       </c>
       <c r="K7">
-        <v>91.12221978814586</v>
+        <v>91.122219788146</v>
       </c>
       <c r="L7">
-        <v>99.82458203750988</v>
+        <v>99.82458203751007</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>81.63618631913042</v>
+        <v>81.63618631913064</v>
       </c>
       <c r="B8">
-        <v>75.82348488166237</v>
+        <v>75.82348488166257</v>
       </c>
       <c r="C8">
-        <v>97.00508443258325</v>
+        <v>97.0050844325834</v>
       </c>
       <c r="D8">
-        <v>74.7242076426776</v>
+        <v>74.72420764267781</v>
       </c>
       <c r="E8">
-        <v>77.33964343972544</v>
+        <v>77.33964343972566</v>
       </c>
       <c r="F8">
-        <v>77.9886129556204</v>
+        <v>77.9886129556206</v>
       </c>
       <c r="G8">
-        <v>79.19492661693559</v>
+        <v>79.1949266169358</v>
       </c>
       <c r="H8">
-        <v>80.48687982127764</v>
+        <v>80.48687982127781</v>
       </c>
       <c r="I8">
-        <v>82.48596428461953</v>
+        <v>82.4859642846197</v>
       </c>
       <c r="J8">
-        <v>86.18741869982271</v>
+        <v>86.1874186998229</v>
       </c>
       <c r="K8">
-        <v>91.12221978814586</v>
+        <v>91.122219788146</v>
       </c>
       <c r="L8">
-        <v>99.82458203750988</v>
+        <v>99.82458203751007</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>81.63618631913042</v>
+        <v>81.63618631913064</v>
       </c>
       <c r="B9">
-        <v>75.82348488166237</v>
+        <v>75.82348488166257</v>
       </c>
       <c r="C9">
-        <v>97.00508443258325</v>
+        <v>97.0050844325834</v>
       </c>
       <c r="D9">
-        <v>74.7242076426776</v>
+        <v>74.72420764267781</v>
       </c>
       <c r="E9">
-        <v>77.33964343972544</v>
+        <v>77.33964343972566</v>
       </c>
       <c r="F9">
-        <v>77.9886129556204</v>
+        <v>77.9886129556206</v>
       </c>
       <c r="G9">
-        <v>79.19492661693559</v>
+        <v>79.1949266169358</v>
       </c>
       <c r="H9">
-        <v>80.48687982127764</v>
+        <v>80.48687982127781</v>
       </c>
       <c r="I9">
-        <v>82.48596428461953</v>
+        <v>82.4859642846197</v>
       </c>
       <c r="J9">
-        <v>86.18741869982271</v>
+        <v>86.1874186998229</v>
       </c>
       <c r="K9">
-        <v>91.12221978814586</v>
+        <v>91.122219788146</v>
       </c>
       <c r="L9">
-        <v>99.82458203750988</v>
+        <v>99.82458203751007</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>81.63618631913042</v>
+        <v>81.63618631913063</v>
       </c>
       <c r="B10">
-        <v>75.82348488166237</v>
+        <v>75.82348488166258</v>
       </c>
       <c r="C10">
-        <v>97.00508443258325</v>
+        <v>97.00508443258343</v>
       </c>
       <c r="D10">
-        <v>74.7242076426776</v>
+        <v>74.72420764267781</v>
       </c>
       <c r="E10">
-        <v>77.33964343972544</v>
+        <v>77.33964343972573</v>
       </c>
       <c r="F10">
-        <v>77.9886129556204</v>
+        <v>77.9886129556206</v>
       </c>
       <c r="G10">
-        <v>79.19492661693559</v>
+        <v>79.1949266169358</v>
       </c>
       <c r="H10">
-        <v>80.48687982127764</v>
+        <v>80.48687982127782</v>
       </c>
       <c r="I10">
-        <v>82.48596428461953</v>
+        <v>82.48596428461971</v>
       </c>
       <c r="J10">
-        <v>86.18741869982271</v>
+        <v>86.1874186998229</v>
       </c>
       <c r="K10">
-        <v>91.12221978814586</v>
+        <v>91.12221978814605</v>
       </c>
       <c r="L10">
-        <v>99.82458203750988</v>
+        <v>99.82458203751008</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>81.46465583119641</v>
+        <v>81.46465583119661</v>
       </c>
       <c r="B11">
-        <v>75.5089449774794</v>
+        <v>75.5089449774796</v>
       </c>
       <c r="C11">
-        <v>102.27446788101102</v>
+        <v>102.27446788101118</v>
       </c>
       <c r="D11">
-        <v>74.98897253472948</v>
+        <v>74.98897253472967</v>
       </c>
       <c r="E11">
-        <v>76.49997115894458</v>
+        <v>76.49997115894479</v>
       </c>
       <c r="F11">
-        <v>77.18105468021393</v>
+        <v>77.18105468021412</v>
       </c>
       <c r="G11">
-        <v>78.28970801900307</v>
+        <v>78.28970801900329</v>
       </c>
       <c r="H11">
-        <v>79.63355254679018</v>
+        <v>79.63355254679038</v>
       </c>
       <c r="I11">
-        <v>82.02601548596317</v>
+        <v>82.02601548596338</v>
       </c>
       <c r="J11">
-        <v>87.69665586835072</v>
+        <v>87.69665586835092</v>
       </c>
       <c r="K11">
-        <v>94.50774743486019</v>
+        <v>94.50774743486035</v>
       </c>
       <c r="L11">
-        <v>106.53725810095804</v>
+        <v>106.53725810095823</v>
       </c>
     </row>
   </sheetData>
@@ -1054,382 +1054,382 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>81.99190297005694</v>
+        <v>81.99190297005714</v>
       </c>
       <c r="B2">
-        <v>74.0491760456403</v>
+        <v>74.0491760456405</v>
       </c>
       <c r="C2">
-        <v>90.23244244476764</v>
+        <v>90.23244244476787</v>
       </c>
       <c r="D2">
-        <v>72.37672751229083</v>
+        <v>72.37672751229105</v>
       </c>
       <c r="E2">
-        <v>76.75170523180327</v>
+        <v>76.75170523180347</v>
       </c>
       <c r="F2">
-        <v>78.42804310247209</v>
+        <v>78.4280431024723</v>
       </c>
       <c r="G2">
-        <v>80.45023469847035</v>
+        <v>80.45023469847057</v>
       </c>
       <c r="H2">
-        <v>82.06108680795897</v>
+        <v>82.06108680795921</v>
       </c>
       <c r="I2">
-        <v>83.46610486422708</v>
+        <v>83.46610486422732</v>
       </c>
       <c r="J2">
-        <v>85.12507615229177</v>
+        <v>85.125076152292</v>
       </c>
       <c r="K2">
-        <v>86.45094560446282</v>
+        <v>86.45094560446303</v>
       </c>
       <c r="L2">
-        <v>93.97199436860471</v>
+        <v>93.9719943686049</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>81.99190297005694</v>
+        <v>81.99190297005714</v>
       </c>
       <c r="B3">
-        <v>74.0491760456403</v>
+        <v>74.0491760456405</v>
       </c>
       <c r="C3">
-        <v>90.23244244476764</v>
+        <v>90.23244244476787</v>
       </c>
       <c r="D3">
-        <v>72.37672751229083</v>
+        <v>72.37672751229105</v>
       </c>
       <c r="E3">
-        <v>76.75170523180327</v>
+        <v>76.75170523180347</v>
       </c>
       <c r="F3">
-        <v>78.42804310247209</v>
+        <v>78.4280431024723</v>
       </c>
       <c r="G3">
-        <v>80.45023469847035</v>
+        <v>80.45023469847057</v>
       </c>
       <c r="H3">
-        <v>82.06108680795897</v>
+        <v>82.06108680795921</v>
       </c>
       <c r="I3">
-        <v>83.46610486422708</v>
+        <v>83.46610486422732</v>
       </c>
       <c r="J3">
-        <v>85.12507615229177</v>
+        <v>85.125076152292</v>
       </c>
       <c r="K3">
-        <v>86.45094560446282</v>
+        <v>86.45094560446303</v>
       </c>
       <c r="L3">
-        <v>93.97199436860471</v>
+        <v>93.9719943686049</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>81.86553135906756</v>
+        <v>81.86553135906779</v>
       </c>
       <c r="B4">
-        <v>75.08005066876817</v>
+        <v>75.08005066876841</v>
       </c>
       <c r="C4">
-        <v>92.56982129727602</v>
+        <v>92.56982129727628</v>
       </c>
       <c r="D4">
-        <v>73.13697853605835</v>
+        <v>73.13697853605858</v>
       </c>
       <c r="E4">
-        <v>77.23151682911471</v>
+        <v>77.23151682911491</v>
       </c>
       <c r="F4">
-        <v>78.42588711828934</v>
+        <v>78.42588711828955</v>
       </c>
       <c r="G4">
-        <v>80.07235649461062</v>
+        <v>80.07235649461082</v>
       </c>
       <c r="H4">
-        <v>81.54466296777733</v>
+        <v>81.54466296777753</v>
       </c>
       <c r="I4">
-        <v>83.09820299571483</v>
+        <v>83.09820299571504</v>
       </c>
       <c r="J4">
-        <v>85.0262743517023</v>
+        <v>85.02627435170248</v>
       </c>
       <c r="K4">
-        <v>87.38898997181445</v>
+        <v>87.38898997181467</v>
       </c>
       <c r="L4">
-        <v>96.74363932462612</v>
+        <v>96.74363932462636</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>81.65772126167327</v>
+        <v>81.65772126167352</v>
       </c>
       <c r="B5">
-        <v>75.9343997108673</v>
+        <v>75.9343997108675</v>
       </c>
       <c r="C5">
-        <v>97.32436939650306</v>
+        <v>97.3243693965033</v>
       </c>
       <c r="D5">
-        <v>74.61925652705791</v>
+        <v>74.61925652705813</v>
       </c>
       <c r="E5">
-        <v>77.26346633272786</v>
+        <v>77.26346633272809</v>
       </c>
       <c r="F5">
-        <v>78.02399578663815</v>
+        <v>78.02399578663835</v>
       </c>
       <c r="G5">
-        <v>79.37892144894387</v>
+        <v>79.37892144894408</v>
       </c>
       <c r="H5">
-        <v>80.81105224064686</v>
+        <v>80.81105224064704</v>
       </c>
       <c r="I5">
-        <v>82.44708139808967</v>
+        <v>82.44708139808985</v>
       </c>
       <c r="J5">
-        <v>85.24545873200816</v>
+        <v>85.24545873200836</v>
       </c>
       <c r="K5">
-        <v>89.73781589444846</v>
+        <v>89.73781589444867</v>
       </c>
       <c r="L5">
-        <v>100.83691246599874</v>
+        <v>100.83691246599898</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>81.63764412230279</v>
+        <v>81.63764412230299</v>
       </c>
       <c r="B6">
-        <v>75.9361794889809</v>
+        <v>75.9361794889811</v>
       </c>
       <c r="C6">
-        <v>97.80307685283499</v>
+        <v>97.80307685283515</v>
       </c>
       <c r="D6">
-        <v>74.59918828591381</v>
+        <v>74.59918828591401</v>
       </c>
       <c r="E6">
-        <v>77.20373929887188</v>
+        <v>77.20373929887207</v>
       </c>
       <c r="F6">
-        <v>77.9487532121571</v>
+        <v>77.94875321215731</v>
       </c>
       <c r="G6">
-        <v>79.34419794933474</v>
+        <v>79.34419794933495</v>
       </c>
       <c r="H6">
-        <v>80.72412042579957</v>
+        <v>80.72412042579975</v>
       </c>
       <c r="I6">
-        <v>82.43229111972138</v>
+        <v>82.43229111972161</v>
       </c>
       <c r="J6">
-        <v>85.2583522683476</v>
+        <v>85.2583522683478</v>
       </c>
       <c r="K6">
-        <v>89.79079207226889</v>
+        <v>89.7907920722691</v>
       </c>
       <c r="L6">
-        <v>101.18788121683912</v>
+        <v>101.18788121683933</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>81.63525991869342</v>
+        <v>81.63525991869365</v>
       </c>
       <c r="B7">
-        <v>75.93524385306277</v>
+        <v>75.935243853063</v>
       </c>
       <c r="C7">
-        <v>97.85992439591101</v>
+        <v>97.85992439591121</v>
       </c>
       <c r="D7">
-        <v>74.59680513898803</v>
+        <v>74.59680513898824</v>
       </c>
       <c r="E7">
-        <v>77.19401877233565</v>
+        <v>77.19401877233587</v>
       </c>
       <c r="F7">
-        <v>77.93749362957232</v>
+        <v>77.93749362957256</v>
       </c>
       <c r="G7">
-        <v>79.3318882821361</v>
+        <v>79.33188828213635</v>
       </c>
       <c r="H7">
-        <v>80.70910472870861</v>
+        <v>80.70910472870884</v>
       </c>
       <c r="I7">
-        <v>82.42108047564709</v>
+        <v>82.42108047564729</v>
       </c>
       <c r="J7">
-        <v>85.25988340360101</v>
+        <v>85.2598834036012</v>
       </c>
       <c r="K7">
-        <v>89.79708310766182</v>
+        <v>89.79708310766203</v>
       </c>
       <c r="L7">
-        <v>101.22955951308842</v>
+        <v>101.2295595130886</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>81.63525991869342</v>
+        <v>81.63525991869365</v>
       </c>
       <c r="B8">
-        <v>75.93524385306277</v>
+        <v>75.935243853063</v>
       </c>
       <c r="C8">
-        <v>97.85992439591101</v>
+        <v>97.85992439591121</v>
       </c>
       <c r="D8">
-        <v>74.59680513898803</v>
+        <v>74.59680513898824</v>
       </c>
       <c r="E8">
-        <v>77.19401877233565</v>
+        <v>77.19401877233587</v>
       </c>
       <c r="F8">
-        <v>77.93749362957232</v>
+        <v>77.93749362957256</v>
       </c>
       <c r="G8">
-        <v>79.3318882821361</v>
+        <v>79.33188828213635</v>
       </c>
       <c r="H8">
-        <v>80.70910472870861</v>
+        <v>80.70910472870884</v>
       </c>
       <c r="I8">
-        <v>82.42108047564709</v>
+        <v>82.42108047564729</v>
       </c>
       <c r="J8">
-        <v>85.25988340360101</v>
+        <v>85.2598834036012</v>
       </c>
       <c r="K8">
-        <v>89.79708310766182</v>
+        <v>89.79708310766203</v>
       </c>
       <c r="L8">
-        <v>101.22955951308842</v>
+        <v>101.2295595130886</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>81.63525991869342</v>
+        <v>81.63525991869365</v>
       </c>
       <c r="B9">
-        <v>75.93524385306277</v>
+        <v>75.935243853063</v>
       </c>
       <c r="C9">
-        <v>97.85992439591101</v>
+        <v>97.85992439591121</v>
       </c>
       <c r="D9">
-        <v>74.59680513898803</v>
+        <v>74.59680513898824</v>
       </c>
       <c r="E9">
-        <v>77.19401877233565</v>
+        <v>77.19401877233587</v>
       </c>
       <c r="F9">
-        <v>77.93749362957232</v>
+        <v>77.93749362957256</v>
       </c>
       <c r="G9">
-        <v>79.3318882821361</v>
+        <v>79.33188828213635</v>
       </c>
       <c r="H9">
-        <v>80.70910472870861</v>
+        <v>80.70910472870884</v>
       </c>
       <c r="I9">
-        <v>82.42108047564709</v>
+        <v>82.42108047564729</v>
       </c>
       <c r="J9">
-        <v>85.25988340360101</v>
+        <v>85.2598834036012</v>
       </c>
       <c r="K9">
-        <v>89.79708310766182</v>
+        <v>89.79708310766203</v>
       </c>
       <c r="L9">
-        <v>101.22955951308842</v>
+        <v>101.2295595130886</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>81.63525991869342</v>
+        <v>81.63525991869363</v>
       </c>
       <c r="B10">
-        <v>75.93524385306277</v>
+        <v>75.93524385306297</v>
       </c>
       <c r="C10">
-        <v>97.85992439591101</v>
+        <v>97.85992439591124</v>
       </c>
       <c r="D10">
-        <v>74.59680513898803</v>
+        <v>74.59680513898824</v>
       </c>
       <c r="E10">
-        <v>77.19401877233565</v>
+        <v>77.19401877233584</v>
       </c>
       <c r="F10">
-        <v>77.93749362957232</v>
+        <v>77.93749362957254</v>
       </c>
       <c r="G10">
-        <v>79.3318882821361</v>
+        <v>79.33188828213633</v>
       </c>
       <c r="H10">
-        <v>80.70910472870861</v>
+        <v>80.70910472870884</v>
       </c>
       <c r="I10">
-        <v>82.42108047564709</v>
+        <v>82.42108047564729</v>
       </c>
       <c r="J10">
-        <v>85.25988340360101</v>
+        <v>85.2598834036012</v>
       </c>
       <c r="K10">
-        <v>89.79708310766182</v>
+        <v>89.79708310766203</v>
       </c>
       <c r="L10">
-        <v>101.22955951308842</v>
+        <v>101.22955951308863</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>81.4334836826465</v>
+        <v>81.43348368264671</v>
       </c>
       <c r="B11">
-        <v>75.65215050072545</v>
+        <v>75.65215050072564</v>
       </c>
       <c r="C11">
-        <v>102.85698745866414</v>
+        <v>102.85698745866432</v>
       </c>
       <c r="D11">
-        <v>75.20577313119506</v>
+        <v>75.20577313119524</v>
       </c>
       <c r="E11">
-        <v>76.48545647436838</v>
+        <v>76.48545647436858</v>
       </c>
       <c r="F11">
-        <v>77.19304281051501</v>
+        <v>77.19304281051521</v>
       </c>
       <c r="G11">
-        <v>78.36790803994197</v>
+        <v>78.36790803994218</v>
       </c>
       <c r="H11">
-        <v>79.78670226774847</v>
+        <v>79.78670226774865</v>
       </c>
       <c r="I11">
-        <v>82.02825435680636</v>
+        <v>82.02825435680654</v>
       </c>
       <c r="J11">
-        <v>86.39482739713175</v>
+        <v>86.39482739713195</v>
       </c>
       <c r="K11">
-        <v>91.68747430285129</v>
+        <v>91.68747430285147</v>
       </c>
       <c r="L11">
-        <v>108.00401266013469</v>
+        <v>108.00401266013488</v>
       </c>
     </row>
   </sheetData>

--- a/March2024/Results/Solar_Eolica/Results_Stats.xlsx
+++ b/March2024/Results/Solar_Eolica/Results_Stats.xlsx
@@ -18,6 +18,7 @@
     <sheet name="q_df" r:id="rId6" sheetId="3"/>
     <sheet name="q_df_Test" r:id="rId7" sheetId="4"/>
     <sheet name="Indicator" r:id="rId8" sheetId="5"/>
+    <sheet name="Differences" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>λ</t>
   </si>
@@ -113,6 +114,9 @@
   </si>
   <si>
     <t>Out of Sample</t>
+  </si>
+  <si>
+    <t>CVaU</t>
   </si>
 </sst>
 </file>
@@ -623,382 +627,382 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>81.93936947794637</v>
+        <v>81.93936947794616</v>
       </c>
       <c r="B2">
-        <v>73.45496719657517</v>
+        <v>73.45496719657494</v>
       </c>
       <c r="C2">
-        <v>89.63987533135463</v>
+        <v>89.63987533135442</v>
       </c>
       <c r="D2">
-        <v>71.46114056540831</v>
+        <v>71.46114056540813</v>
       </c>
       <c r="E2">
-        <v>76.56831891577686</v>
+        <v>76.56831891577663</v>
       </c>
       <c r="F2">
-        <v>78.5030769847856</v>
+        <v>78.50307698478537</v>
       </c>
       <c r="G2">
-        <v>80.57878795051649</v>
+        <v>80.57878795051627</v>
       </c>
       <c r="H2">
-        <v>82.01886235588195</v>
+        <v>82.01886235588172</v>
       </c>
       <c r="I2">
-        <v>83.49893334848637</v>
+        <v>83.49893334848616</v>
       </c>
       <c r="J2">
-        <v>85.23838890122495</v>
+        <v>85.23838890122474</v>
       </c>
       <c r="K2">
-        <v>86.74303483638221</v>
+        <v>86.74303483638201</v>
       </c>
       <c r="L2">
-        <v>91.88970435195023</v>
+        <v>91.88970435195002</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>81.93936947794637</v>
+        <v>81.93936947794616</v>
       </c>
       <c r="B3">
-        <v>73.45496719657517</v>
+        <v>73.45496719657494</v>
       </c>
       <c r="C3">
-        <v>89.63987533135463</v>
+        <v>89.63987533135442</v>
       </c>
       <c r="D3">
-        <v>71.46114056540831</v>
+        <v>71.46114056540813</v>
       </c>
       <c r="E3">
-        <v>76.56831891577686</v>
+        <v>76.56831891577663</v>
       </c>
       <c r="F3">
-        <v>78.5030769847856</v>
+        <v>78.50307698478537</v>
       </c>
       <c r="G3">
-        <v>80.57878795051649</v>
+        <v>80.57878795051627</v>
       </c>
       <c r="H3">
-        <v>82.01886235588195</v>
+        <v>82.01886235588172</v>
       </c>
       <c r="I3">
-        <v>83.49893334848637</v>
+        <v>83.49893334848616</v>
       </c>
       <c r="J3">
-        <v>85.23838890122495</v>
+        <v>85.23838890122474</v>
       </c>
       <c r="K3">
-        <v>86.74303483638221</v>
+        <v>86.74303483638201</v>
       </c>
       <c r="L3">
-        <v>91.88970435195023</v>
+        <v>91.88970435195002</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>81.83194065223981</v>
+        <v>81.83194065223961</v>
       </c>
       <c r="B4">
-        <v>74.7453518877366</v>
+        <v>74.74535188773635</v>
       </c>
       <c r="C4">
-        <v>91.82333621014973</v>
+        <v>91.8233362101495</v>
       </c>
       <c r="D4">
-        <v>72.88202405734816</v>
+        <v>72.88202405734792</v>
       </c>
       <c r="E4">
-        <v>77.27524520582914</v>
+        <v>77.27524520582892</v>
       </c>
       <c r="F4">
-        <v>78.62869189895423</v>
+        <v>78.62869189895402</v>
       </c>
       <c r="G4">
-        <v>80.16143279691204</v>
+        <v>80.16143279691184</v>
       </c>
       <c r="H4">
-        <v>81.52676427473992</v>
+        <v>81.52676427473973</v>
       </c>
       <c r="I4">
-        <v>83.02838257760692</v>
+        <v>83.0283825776067</v>
       </c>
       <c r="J4">
-        <v>85.0703748974481</v>
+        <v>85.07037489744788</v>
       </c>
       <c r="K4">
-        <v>87.84418794740837</v>
+        <v>87.84418794740816</v>
       </c>
       <c r="L4">
-        <v>94.0999044476072</v>
+        <v>94.09990444760692</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>81.65528076353336</v>
+        <v>81.65528076353313</v>
       </c>
       <c r="B5">
-        <v>75.78554483863397</v>
+        <v>75.78554483863378</v>
       </c>
       <c r="C5">
-        <v>96.44613666492154</v>
+        <v>96.44613666492131</v>
       </c>
       <c r="D5">
-        <v>74.78243767904873</v>
+        <v>74.78243767904854</v>
       </c>
       <c r="E5">
-        <v>77.4007880807075</v>
+        <v>77.40078808070729</v>
       </c>
       <c r="F5">
-        <v>78.10066444499307</v>
+        <v>78.10066444499289</v>
       </c>
       <c r="G5">
-        <v>79.29567576097323</v>
+        <v>79.29567576097303</v>
       </c>
       <c r="H5">
-        <v>80.56187224731282</v>
+        <v>80.56187224731259</v>
       </c>
       <c r="I5">
-        <v>82.50939666541818</v>
+        <v>82.50939666541798</v>
       </c>
       <c r="J5">
-        <v>86.12790627262294</v>
+        <v>86.12790627262274</v>
       </c>
       <c r="K5">
-        <v>90.81349408987745</v>
+        <v>90.81349408987724</v>
       </c>
       <c r="L5">
-        <v>99.14248434247509</v>
+        <v>99.14248434247484</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>81.63821313664124</v>
+        <v>81.63821313664103</v>
       </c>
       <c r="B6">
-        <v>75.82167835099693</v>
+        <v>75.82167835099672</v>
       </c>
       <c r="C6">
-        <v>96.94575381792285</v>
+        <v>96.94575381792268</v>
       </c>
       <c r="D6">
-        <v>74.73038858488651</v>
+        <v>74.73038858488631</v>
       </c>
       <c r="E6">
-        <v>77.33394100779695</v>
+        <v>77.33394100779675</v>
       </c>
       <c r="F6">
-        <v>78.00362865271155</v>
+        <v>78.00362865271136</v>
       </c>
       <c r="G6">
-        <v>79.20419001685916</v>
+        <v>79.20419001685895</v>
       </c>
       <c r="H6">
-        <v>80.49197263998384</v>
+        <v>80.49197263998364</v>
       </c>
       <c r="I6">
-        <v>82.47372967994546</v>
+        <v>82.47372967994528</v>
       </c>
       <c r="J6">
-        <v>86.17155893759609</v>
+        <v>86.17155893759588</v>
       </c>
       <c r="K6">
-        <v>91.05119266903752</v>
+        <v>91.05119266903736</v>
       </c>
       <c r="L6">
-        <v>99.7521794306005</v>
+        <v>99.75217943060038</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>81.63618631913064</v>
+        <v>81.63618631913042</v>
       </c>
       <c r="B7">
-        <v>75.82348488166257</v>
+        <v>75.82348488166237</v>
       </c>
       <c r="C7">
-        <v>97.0050844325834</v>
+        <v>97.00508443258325</v>
       </c>
       <c r="D7">
-        <v>74.72420764267781</v>
+        <v>74.7242076426776</v>
       </c>
       <c r="E7">
-        <v>77.33964343972566</v>
+        <v>77.33964343972544</v>
       </c>
       <c r="F7">
-        <v>77.9886129556206</v>
+        <v>77.9886129556204</v>
       </c>
       <c r="G7">
-        <v>79.1949266169358</v>
+        <v>79.19492661693559</v>
       </c>
       <c r="H7">
-        <v>80.48687982127781</v>
+        <v>80.48687982127764</v>
       </c>
       <c r="I7">
-        <v>82.4859642846197</v>
+        <v>82.48596428461953</v>
       </c>
       <c r="J7">
-        <v>86.1874186998229</v>
+        <v>86.18741869982271</v>
       </c>
       <c r="K7">
-        <v>91.122219788146</v>
+        <v>91.12221978814586</v>
       </c>
       <c r="L7">
-        <v>99.82458203751007</v>
+        <v>99.82458203750988</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>81.63618631913064</v>
+        <v>81.63618631913042</v>
       </c>
       <c r="B8">
-        <v>75.82348488166257</v>
+        <v>75.82348488166237</v>
       </c>
       <c r="C8">
-        <v>97.0050844325834</v>
+        <v>97.00508443258325</v>
       </c>
       <c r="D8">
-        <v>74.72420764267781</v>
+        <v>74.7242076426776</v>
       </c>
       <c r="E8">
-        <v>77.33964343972566</v>
+        <v>77.33964343972544</v>
       </c>
       <c r="F8">
-        <v>77.9886129556206</v>
+        <v>77.9886129556204</v>
       </c>
       <c r="G8">
-        <v>79.1949266169358</v>
+        <v>79.19492661693559</v>
       </c>
       <c r="H8">
-        <v>80.48687982127781</v>
+        <v>80.48687982127764</v>
       </c>
       <c r="I8">
-        <v>82.4859642846197</v>
+        <v>82.48596428461953</v>
       </c>
       <c r="J8">
-        <v>86.1874186998229</v>
+        <v>86.18741869982271</v>
       </c>
       <c r="K8">
-        <v>91.122219788146</v>
+        <v>91.12221978814586</v>
       </c>
       <c r="L8">
-        <v>99.82458203751007</v>
+        <v>99.82458203750988</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>81.63618631913064</v>
+        <v>81.63618631913042</v>
       </c>
       <c r="B9">
-        <v>75.82348488166257</v>
+        <v>75.82348488166237</v>
       </c>
       <c r="C9">
-        <v>97.0050844325834</v>
+        <v>97.00508443258325</v>
       </c>
       <c r="D9">
-        <v>74.72420764267781</v>
+        <v>74.7242076426776</v>
       </c>
       <c r="E9">
-        <v>77.33964343972566</v>
+        <v>77.33964343972544</v>
       </c>
       <c r="F9">
-        <v>77.9886129556206</v>
+        <v>77.9886129556204</v>
       </c>
       <c r="G9">
-        <v>79.1949266169358</v>
+        <v>79.19492661693559</v>
       </c>
       <c r="H9">
-        <v>80.48687982127781</v>
+        <v>80.48687982127764</v>
       </c>
       <c r="I9">
-        <v>82.4859642846197</v>
+        <v>82.48596428461953</v>
       </c>
       <c r="J9">
-        <v>86.1874186998229</v>
+        <v>86.18741869982271</v>
       </c>
       <c r="K9">
-        <v>91.122219788146</v>
+        <v>91.12221978814586</v>
       </c>
       <c r="L9">
-        <v>99.82458203751007</v>
+        <v>99.82458203750988</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>81.63618631913063</v>
+        <v>81.63618631913042</v>
       </c>
       <c r="B10">
-        <v>75.82348488166258</v>
+        <v>75.82348488166237</v>
       </c>
       <c r="C10">
-        <v>97.00508443258343</v>
+        <v>97.00508443258325</v>
       </c>
       <c r="D10">
-        <v>74.72420764267781</v>
+        <v>74.7242076426776</v>
       </c>
       <c r="E10">
-        <v>77.33964343972573</v>
+        <v>77.33964343972544</v>
       </c>
       <c r="F10">
-        <v>77.9886129556206</v>
+        <v>77.9886129556204</v>
       </c>
       <c r="G10">
-        <v>79.1949266169358</v>
+        <v>79.19492661693559</v>
       </c>
       <c r="H10">
-        <v>80.48687982127782</v>
+        <v>80.48687982127764</v>
       </c>
       <c r="I10">
-        <v>82.48596428461971</v>
+        <v>82.48596428461953</v>
       </c>
       <c r="J10">
-        <v>86.1874186998229</v>
+        <v>86.18741869982271</v>
       </c>
       <c r="K10">
-        <v>91.12221978814605</v>
+        <v>91.12221978814586</v>
       </c>
       <c r="L10">
-        <v>99.82458203751008</v>
+        <v>99.82458203750988</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>81.46465583119661</v>
+        <v>81.46465583119641</v>
       </c>
       <c r="B11">
-        <v>75.5089449774796</v>
+        <v>75.5089449774794</v>
       </c>
       <c r="C11">
-        <v>102.27446788101118</v>
+        <v>102.27446788101102</v>
       </c>
       <c r="D11">
-        <v>74.98897253472967</v>
+        <v>74.98897253472948</v>
       </c>
       <c r="E11">
-        <v>76.49997115894479</v>
+        <v>76.49997115894458</v>
       </c>
       <c r="F11">
-        <v>77.18105468021412</v>
+        <v>77.18105468021393</v>
       </c>
       <c r="G11">
-        <v>78.28970801900329</v>
+        <v>78.28970801900307</v>
       </c>
       <c r="H11">
-        <v>79.63355254679038</v>
+        <v>79.63355254679018</v>
       </c>
       <c r="I11">
-        <v>82.02601548596338</v>
+        <v>82.02601548596317</v>
       </c>
       <c r="J11">
-        <v>87.69665586835092</v>
+        <v>87.69665586835072</v>
       </c>
       <c r="K11">
-        <v>94.50774743486035</v>
+        <v>94.50774743486019</v>
       </c>
       <c r="L11">
-        <v>106.53725810095823</v>
+        <v>106.53725810095804</v>
       </c>
     </row>
   </sheetData>
@@ -1054,382 +1058,382 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>81.99190297005714</v>
+        <v>81.99190297005694</v>
       </c>
       <c r="B2">
-        <v>74.0491760456405</v>
+        <v>74.0491760456403</v>
       </c>
       <c r="C2">
-        <v>90.23244244476787</v>
+        <v>90.23244244476764</v>
       </c>
       <c r="D2">
-        <v>72.37672751229105</v>
+        <v>72.37672751229083</v>
       </c>
       <c r="E2">
-        <v>76.75170523180347</v>
+        <v>76.75170523180327</v>
       </c>
       <c r="F2">
-        <v>78.4280431024723</v>
+        <v>78.42804310247209</v>
       </c>
       <c r="G2">
-        <v>80.45023469847057</v>
+        <v>80.45023469847035</v>
       </c>
       <c r="H2">
-        <v>82.06108680795921</v>
+        <v>82.06108680795897</v>
       </c>
       <c r="I2">
-        <v>83.46610486422732</v>
+        <v>83.46610486422708</v>
       </c>
       <c r="J2">
-        <v>85.125076152292</v>
+        <v>85.12507615229177</v>
       </c>
       <c r="K2">
-        <v>86.45094560446303</v>
+        <v>86.45094560446282</v>
       </c>
       <c r="L2">
-        <v>93.9719943686049</v>
+        <v>93.97199436860471</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>81.99190297005714</v>
+        <v>81.99190297005694</v>
       </c>
       <c r="B3">
-        <v>74.0491760456405</v>
+        <v>74.0491760456403</v>
       </c>
       <c r="C3">
-        <v>90.23244244476787</v>
+        <v>90.23244244476764</v>
       </c>
       <c r="D3">
-        <v>72.37672751229105</v>
+        <v>72.37672751229083</v>
       </c>
       <c r="E3">
-        <v>76.75170523180347</v>
+        <v>76.75170523180327</v>
       </c>
       <c r="F3">
-        <v>78.4280431024723</v>
+        <v>78.42804310247209</v>
       </c>
       <c r="G3">
-        <v>80.45023469847057</v>
+        <v>80.45023469847035</v>
       </c>
       <c r="H3">
-        <v>82.06108680795921</v>
+        <v>82.06108680795897</v>
       </c>
       <c r="I3">
-        <v>83.46610486422732</v>
+        <v>83.46610486422708</v>
       </c>
       <c r="J3">
-        <v>85.125076152292</v>
+        <v>85.12507615229177</v>
       </c>
       <c r="K3">
-        <v>86.45094560446303</v>
+        <v>86.45094560446282</v>
       </c>
       <c r="L3">
-        <v>93.9719943686049</v>
+        <v>93.97199436860471</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>81.86553135906779</v>
+        <v>81.86553135906756</v>
       </c>
       <c r="B4">
-        <v>75.08005066876841</v>
+        <v>75.08005066876817</v>
       </c>
       <c r="C4">
-        <v>92.56982129727628</v>
+        <v>92.56982129727602</v>
       </c>
       <c r="D4">
-        <v>73.13697853605858</v>
+        <v>73.13697853605835</v>
       </c>
       <c r="E4">
-        <v>77.23151682911491</v>
+        <v>77.23151682911471</v>
       </c>
       <c r="F4">
-        <v>78.42588711828955</v>
+        <v>78.42588711828934</v>
       </c>
       <c r="G4">
-        <v>80.07235649461082</v>
+        <v>80.07235649461062</v>
       </c>
       <c r="H4">
-        <v>81.54466296777753</v>
+        <v>81.54466296777733</v>
       </c>
       <c r="I4">
-        <v>83.09820299571504</v>
+        <v>83.09820299571483</v>
       </c>
       <c r="J4">
-        <v>85.02627435170248</v>
+        <v>85.0262743517023</v>
       </c>
       <c r="K4">
-        <v>87.38898997181467</v>
+        <v>87.38898997181445</v>
       </c>
       <c r="L4">
-        <v>96.74363932462636</v>
+        <v>96.74363932462612</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>81.65772126167352</v>
+        <v>81.65772126167327</v>
       </c>
       <c r="B5">
-        <v>75.9343997108675</v>
+        <v>75.9343997108673</v>
       </c>
       <c r="C5">
-        <v>97.3243693965033</v>
+        <v>97.32436939650306</v>
       </c>
       <c r="D5">
-        <v>74.61925652705813</v>
+        <v>74.61925652705791</v>
       </c>
       <c r="E5">
-        <v>77.26346633272809</v>
+        <v>77.26346633272786</v>
       </c>
       <c r="F5">
-        <v>78.02399578663835</v>
+        <v>78.02399578663815</v>
       </c>
       <c r="G5">
-        <v>79.37892144894408</v>
+        <v>79.37892144894387</v>
       </c>
       <c r="H5">
-        <v>80.81105224064704</v>
+        <v>80.81105224064686</v>
       </c>
       <c r="I5">
-        <v>82.44708139808985</v>
+        <v>82.44708139808967</v>
       </c>
       <c r="J5">
-        <v>85.24545873200836</v>
+        <v>85.24545873200816</v>
       </c>
       <c r="K5">
-        <v>89.73781589444867</v>
+        <v>89.73781589444846</v>
       </c>
       <c r="L5">
-        <v>100.83691246599898</v>
+        <v>100.83691246599874</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>81.63764412230299</v>
+        <v>81.63764412230279</v>
       </c>
       <c r="B6">
-        <v>75.9361794889811</v>
+        <v>75.9361794889809</v>
       </c>
       <c r="C6">
-        <v>97.80307685283515</v>
+        <v>97.80307685283499</v>
       </c>
       <c r="D6">
-        <v>74.59918828591401</v>
+        <v>74.59918828591381</v>
       </c>
       <c r="E6">
-        <v>77.20373929887207</v>
+        <v>77.20373929887188</v>
       </c>
       <c r="F6">
-        <v>77.94875321215731</v>
+        <v>77.9487532121571</v>
       </c>
       <c r="G6">
-        <v>79.34419794933495</v>
+        <v>79.34419794933474</v>
       </c>
       <c r="H6">
-        <v>80.72412042579975</v>
+        <v>80.72412042579957</v>
       </c>
       <c r="I6">
-        <v>82.43229111972161</v>
+        <v>82.43229111972138</v>
       </c>
       <c r="J6">
-        <v>85.2583522683478</v>
+        <v>85.2583522683476</v>
       </c>
       <c r="K6">
-        <v>89.7907920722691</v>
+        <v>89.79079207226889</v>
       </c>
       <c r="L6">
-        <v>101.18788121683933</v>
+        <v>101.18788121683912</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>81.63525991869365</v>
+        <v>81.63525991869342</v>
       </c>
       <c r="B7">
-        <v>75.935243853063</v>
+        <v>75.93524385306277</v>
       </c>
       <c r="C7">
-        <v>97.85992439591121</v>
+        <v>97.85992439591101</v>
       </c>
       <c r="D7">
-        <v>74.59680513898824</v>
+        <v>74.59680513898803</v>
       </c>
       <c r="E7">
-        <v>77.19401877233587</v>
+        <v>77.19401877233565</v>
       </c>
       <c r="F7">
-        <v>77.93749362957256</v>
+        <v>77.93749362957232</v>
       </c>
       <c r="G7">
-        <v>79.33188828213635</v>
+        <v>79.3318882821361</v>
       </c>
       <c r="H7">
-        <v>80.70910472870884</v>
+        <v>80.70910472870861</v>
       </c>
       <c r="I7">
-        <v>82.42108047564729</v>
+        <v>82.42108047564709</v>
       </c>
       <c r="J7">
-        <v>85.2598834036012</v>
+        <v>85.25988340360101</v>
       </c>
       <c r="K7">
-        <v>89.79708310766203</v>
+        <v>89.79708310766182</v>
       </c>
       <c r="L7">
-        <v>101.2295595130886</v>
+        <v>101.22955951308842</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>81.63525991869365</v>
+        <v>81.63525991869342</v>
       </c>
       <c r="B8">
-        <v>75.935243853063</v>
+        <v>75.93524385306277</v>
       </c>
       <c r="C8">
-        <v>97.85992439591121</v>
+        <v>97.85992439591101</v>
       </c>
       <c r="D8">
-        <v>74.59680513898824</v>
+        <v>74.59680513898803</v>
       </c>
       <c r="E8">
-        <v>77.19401877233587</v>
+        <v>77.19401877233565</v>
       </c>
       <c r="F8">
-        <v>77.93749362957256</v>
+        <v>77.93749362957232</v>
       </c>
       <c r="G8">
-        <v>79.33188828213635</v>
+        <v>79.3318882821361</v>
       </c>
       <c r="H8">
-        <v>80.70910472870884</v>
+        <v>80.70910472870861</v>
       </c>
       <c r="I8">
-        <v>82.42108047564729</v>
+        <v>82.42108047564709</v>
       </c>
       <c r="J8">
-        <v>85.2598834036012</v>
+        <v>85.25988340360101</v>
       </c>
       <c r="K8">
-        <v>89.79708310766203</v>
+        <v>89.79708310766182</v>
       </c>
       <c r="L8">
-        <v>101.2295595130886</v>
+        <v>101.22955951308842</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>81.63525991869365</v>
+        <v>81.63525991869342</v>
       </c>
       <c r="B9">
-        <v>75.935243853063</v>
+        <v>75.93524385306277</v>
       </c>
       <c r="C9">
-        <v>97.85992439591121</v>
+        <v>97.85992439591101</v>
       </c>
       <c r="D9">
-        <v>74.59680513898824</v>
+        <v>74.59680513898803</v>
       </c>
       <c r="E9">
-        <v>77.19401877233587</v>
+        <v>77.19401877233565</v>
       </c>
       <c r="F9">
-        <v>77.93749362957256</v>
+        <v>77.93749362957232</v>
       </c>
       <c r="G9">
-        <v>79.33188828213635</v>
+        <v>79.3318882821361</v>
       </c>
       <c r="H9">
-        <v>80.70910472870884</v>
+        <v>80.70910472870861</v>
       </c>
       <c r="I9">
-        <v>82.42108047564729</v>
+        <v>82.42108047564709</v>
       </c>
       <c r="J9">
-        <v>85.2598834036012</v>
+        <v>85.25988340360101</v>
       </c>
       <c r="K9">
-        <v>89.79708310766203</v>
+        <v>89.79708310766182</v>
       </c>
       <c r="L9">
-        <v>101.2295595130886</v>
+        <v>101.22955951308842</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>81.63525991869363</v>
+        <v>81.63525991869342</v>
       </c>
       <c r="B10">
-        <v>75.93524385306297</v>
+        <v>75.93524385306277</v>
       </c>
       <c r="C10">
-        <v>97.85992439591124</v>
+        <v>97.85992439591101</v>
       </c>
       <c r="D10">
-        <v>74.59680513898824</v>
+        <v>74.59680513898803</v>
       </c>
       <c r="E10">
-        <v>77.19401877233584</v>
+        <v>77.19401877233565</v>
       </c>
       <c r="F10">
-        <v>77.93749362957254</v>
+        <v>77.93749362957232</v>
       </c>
       <c r="G10">
-        <v>79.33188828213633</v>
+        <v>79.3318882821361</v>
       </c>
       <c r="H10">
-        <v>80.70910472870884</v>
+        <v>80.70910472870861</v>
       </c>
       <c r="I10">
-        <v>82.42108047564729</v>
+        <v>82.42108047564709</v>
       </c>
       <c r="J10">
-        <v>85.2598834036012</v>
+        <v>85.25988340360101</v>
       </c>
       <c r="K10">
-        <v>89.79708310766203</v>
+        <v>89.79708310766182</v>
       </c>
       <c r="L10">
-        <v>101.22955951308863</v>
+        <v>101.22955951308842</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>81.43348368264671</v>
+        <v>81.4334836826465</v>
       </c>
       <c r="B11">
-        <v>75.65215050072564</v>
+        <v>75.65215050072545</v>
       </c>
       <c r="C11">
-        <v>102.85698745866432</v>
+        <v>102.85698745866414</v>
       </c>
       <c r="D11">
-        <v>75.20577313119524</v>
+        <v>75.20577313119506</v>
       </c>
       <c r="E11">
-        <v>76.48545647436858</v>
+        <v>76.48545647436838</v>
       </c>
       <c r="F11">
-        <v>77.19304281051521</v>
+        <v>77.19304281051501</v>
       </c>
       <c r="G11">
-        <v>78.36790803994218</v>
+        <v>78.36790803994197</v>
       </c>
       <c r="H11">
-        <v>79.78670226774865</v>
+        <v>79.78670226774847</v>
       </c>
       <c r="I11">
-        <v>82.02825435680654</v>
+        <v>82.02825435680636</v>
       </c>
       <c r="J11">
-        <v>86.39482739713195</v>
+        <v>86.39482739713175</v>
       </c>
       <c r="K11">
-        <v>91.68747430285147</v>
+        <v>91.68747430285129</v>
       </c>
       <c r="L11">
-        <v>108.00401266013488</v>
+        <v>108.00401266013469</v>
       </c>
     </row>
   </sheetData>
@@ -1472,4 +1476,109 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>-0.005522939769679014</v>
+      </c>
+      <c r="C2">
+        <v>-0.04363302660656112</v>
+      </c>
+      <c r="D2">
+        <v>0.21612908150269072</v>
+      </c>
+      <c r="E2">
+        <v>-0.043212950723885216</v>
+      </c>
+      <c r="F2">
+        <v>-0.03098169411397523</v>
+      </c>
+      <c r="G2">
+        <v>0.132812591502641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>-0.0028910025525656366</v>
+      </c>
+      <c r="C3">
+        <v>-0.016406588545398147</v>
+      </c>
+      <c r="D3">
+        <v>0.06872087679888653</v>
+      </c>
+      <c r="E3">
+        <v>-0.016244155635216907</v>
+      </c>
+      <c r="F3">
+        <v>-0.0115541301055237</v>
+      </c>
+      <c r="G3">
+        <v>0.044783568780617615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>-0.0028625364224497863</v>
+      </c>
+      <c r="C4">
+        <v>-0.016218098491107915</v>
+      </c>
+      <c r="D4">
+        <v>0.06785959595319252</v>
+      </c>
+      <c r="E4">
+        <v>-0.01605750107281553</v>
+      </c>
+      <c r="F4">
+        <v>-0.011420740958039109</v>
+      </c>
+      <c r="G4">
+        <v>0.04423744673127854</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>